--- a/2024_v03_scr_db.xlsx
+++ b/2024_v03_scr_db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="scr_users" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,6 +13,8 @@
     <sheet name="scr_countries" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="scr_image_sets" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="scr_schema_types" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="scr_hubs" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="scr_regions" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="214">
   <si>
     <t xml:space="preserve">user_id</t>
   </si>
@@ -425,6 +427,51 @@
     <t xml:space="preserve">users</t>
   </si>
   <si>
+    <t xml:space="preserve">0190c390-2168-7d7a-afb2-7190a890cd5e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rgion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c390-216b-7e4d-9eb1-d5fbb1acb72b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c390-216b-7e4d-9eb1-d5fdb8da1b52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c390-216b-7e4d-9eb1-d5fc2bfaae69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c3f6-1eda-7429-9655-ef86e7b4385d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hub--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c3f6-1edc-78f1-9443-8989ee63f136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c3f6-1edc-78f1-9443-89884a9d8ad8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c3f6-1edc-78f1-9443-898a0eb37bcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c3f6-1edd-7a06-935f-8db8a6dcf8c6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c3f6-1edd-7a06-935f-8db9167d3b5e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c3f6-1edd-7a06-935f-8dbae2fa27a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c3f6-1edd-7a06-935f-8dbbea7b9cab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c3f6-1edd-7a06-935f-8dbc40aa61be</t>
+  </si>
+  <si>
     <t xml:space="preserve">schema_type_id</t>
   </si>
   <si>
@@ -471,20 +518,172 @@
   </si>
   <si>
     <t xml:space="preserve">Waterfalls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c5a2-a83c-7009-a375-559ddf73106d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hub_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hub_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c372-ffe0-797f-a6f5-a8e8854c64b7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad Limon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c373-0019-710d-98c8-3de7a9ccd6aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Viejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ptovjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c373-0019-710d-98c8-3de8a68810d6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guanac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamarindo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmrndo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c373-0019-710d-98c8-3dea86e85f3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stacrz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c373-0019-710d-98c8-3de94ce04342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicoya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c373-0019-710d-98c8-3debd3804cb5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c373-0019-710d-98c8-3deca3d0218a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zonsur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perez Zeledon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perzel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c373-0019-710d-98c8-3ded5d0d98da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pactrl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domcal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c373-0019-710d-98c8-3deea928e704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaco / Herradura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c374-d611-716f-8f87-29523d088d26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c374-d614-7633-8070-e0516d1afd9d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanacaste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c374-d614-7633-8070-e0521cc6a1f8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zona Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0190c374-d614-7633-8070-e05326dc2a82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacifico Central</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -550,12 +749,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,6 +776,132 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2367000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124960" y="2598120"/>
+          <a:ext cx="3263040" cy="1054440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2757240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30600" y="2514240"/>
+          <a:ext cx="2726640" cy="2124720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>118440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3010320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2175840"/>
+          <a:ext cx="3010320" cy="1489320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,7 +1017,7 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -693,7 +1026,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="43.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="11.53"/>
   </cols>
@@ -1172,7 +1505,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1320,10 +1653,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.71484375" defaultRowHeight="20.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1457,6 +1790,226 @@
       </c>
       <c r="B16" s="1" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.71484375" defaultRowHeight="20.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="42.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1470,86 +2023,255 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.71484375" defaultRowHeight="20.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="42.71484375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="42.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="2" width="42.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>9.99077</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>-83.03105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>9.65612</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>-82.75216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>142</v>
+      <c r="D4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>10.30082</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>-85.84005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>10.26304</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>-85.58588</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>10.14858</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>-85.45381</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>10.62967</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>-85.4382</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>9.3739</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>-83.70303</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>9.25555</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>-83.86293</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>148</v>
+      <c r="D10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>9.6182</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>-84.63153</v>
       </c>
     </row>
   </sheetData>
@@ -1560,5 +2282,107 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.71484375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="2" width="42.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>